--- a/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,42; 97,72</t>
+          <t>92,27; 97,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,43; 90,93</t>
+          <t>82,43; 90,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,7 +744,7 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,53; 97,57</t>
+          <t>92,78; 97,65</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,7 +754,7 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,66; 94,5</t>
+          <t>88,04; 94,51</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,53; 97,22</t>
+          <t>93,42; 97,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,7 +774,7 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,38; 91,91</t>
+          <t>86,2; 91,8</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,81; 90,94</t>
+          <t>84,8; 91,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,96; 91,06</t>
+          <t>84,83; 90,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,74; 88,35</t>
+          <t>82,01; 88,35</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,98; 92,16</t>
+          <t>87,24; 92,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,8; 93,13</t>
+          <t>87,75; 93,09</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,07; 92,59</t>
+          <t>87,4; 92,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,74; 90,8</t>
+          <t>86,75; 90,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,28; 91,26</t>
+          <t>87,19; 91,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,64; 89,82</t>
+          <t>85,45; 89,63</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,37; 97,08</t>
+          <t>91,23; 97,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,21; 97,78</t>
+          <t>92,93; 97,77</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>94,06; 98,19</t>
+          <t>93,68; 98,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,44; 98,37</t>
+          <t>94,33; 98,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,35; 97,08</t>
+          <t>92,17; 97,07</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,74; 99,41</t>
+          <t>96,31; 99,38</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,99; 97,31</t>
+          <t>93,7; 97,18</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,69; 96,93</t>
+          <t>93,26; 96,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,96; 98,42</t>
+          <t>95,9; 98,39</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,95; 95,86</t>
+          <t>90,73; 96,15</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,72; 92,57</t>
+          <t>87,43; 92,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,23; 91,98</t>
+          <t>85,44; 91,99</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,26; 98,24</t>
+          <t>94,59; 98,16</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,99; 95,07</t>
+          <t>90,9; 95,12</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,1; 95,51</t>
+          <t>89,79; 95,54</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,72; 96,67</t>
+          <t>93,26; 96,7</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,06; 93,11</t>
+          <t>90,1; 93,26</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88,94; 93,01</t>
+          <t>89,05; 93,05</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1284,17 +1284,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,66; 94,68</t>
+          <t>86,38; 94,94</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>91,8; 97,78</t>
+          <t>92,47; 98,05</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>94,99; 99,53</t>
+          <t>95,59; 99,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1304,17 +1304,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,28; 98,26</t>
+          <t>92,41; 98,46</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,64; 96,34</t>
+          <t>88,46; 96,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,18; 99,62</t>
+          <t>96,51; 99,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1324,17 +1324,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,89; 96,02</t>
+          <t>90,72; 95,84</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,65; 96,34</t>
+          <t>91,82; 96,38</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>96,85; 99,4</t>
+          <t>96,88; 99,4</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1424,17 +1424,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,2; 96,5</t>
+          <t>91,19; 96,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,44; 96,74</t>
+          <t>90,99; 97,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,67; 90,45</t>
+          <t>81,49; 90,18</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1444,17 +1444,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,09; 96,79</t>
+          <t>91,23; 96,75</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,97; 97,9</t>
+          <t>92,63; 97,61</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,91; 95,27</t>
+          <t>89,1; 95,23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1464,17 +1464,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,3; 96,18</t>
+          <t>92,31; 96,07</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>93,02; 96,8</t>
+          <t>92,83; 96,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>86,47; 91,7</t>
+          <t>86,59; 91,83</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,38; 96,13</t>
+          <t>92,31; 96,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,78; 95,39</t>
+          <t>91,63; 95,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,76; 94,0</t>
+          <t>89,53; 93,97</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
@@ -1584,17 +1584,17 @@
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,65; 94,15</t>
+          <t>89,4; 94,16</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,72; 95,46</t>
+          <t>91,7; 95,68</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,59; 93,78</t>
+          <t>89,41; 93,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1604,17 +1604,17 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,55; 94,5</t>
+          <t>91,79; 94,48</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92,18; 94,89</t>
+          <t>92,11; 95,0</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>90,35; 93,37</t>
+          <t>90,24; 93,32</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -1704,17 +1704,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,32; 94,12</t>
+          <t>90,19; 94,13</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,32; 97,95</t>
+          <t>95,12; 98,11</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,34; 98,06</t>
+          <t>95,39; 98,14</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
@@ -1724,17 +1724,17 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>93,99; 96,89</t>
+          <t>94,14; 97,01</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,85</t>
+          <t>95,31; 97,89</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,17</t>
+          <t>96,1; 98,29</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1744,17 +1744,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,87; 95,28</t>
+          <t>92,8; 95,2</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,74; 97,68</t>
+          <t>95,72; 97,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>96,23; 97,92</t>
+          <t>96,25; 97,96</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -1844,17 +1844,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,86; 93,75</t>
+          <t>91,91; 93,75</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>92,32; 94,2</t>
+          <t>92,34; 94,22</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,71; 92,7</t>
+          <t>90,77; 92,65</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
@@ -1864,17 +1864,17 @@
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,05</t>
+          <t>93,44; 95,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>93,33; 94,96</t>
+          <t>93,36; 94,89</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>93,2; 94,76</t>
+          <t>93,25; 94,85</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1884,17 +1884,17 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,93; 94,19</t>
+          <t>92,97; 94,2</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,16; 94,36</t>
+          <t>93,14; 94,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>92,26; 93,52</t>
+          <t>92,27; 93,59</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">

--- a/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,27; 97,64</t>
+          <t>92,44; 97,87</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>82,43; 90,99</t>
+          <t>81,81; 90,94</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,46; 97,12</t>
+          <t>91,54; 96,94</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,78; 97,65</t>
+          <t>92,6; 97,73</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>88,04; 94,51</t>
+          <t>87,99; 94,33</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,59; 95,5</t>
+          <t>90,69; 95,54</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,42; 97,22</t>
+          <t>93,63; 97,28</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,2; 91,8</t>
+          <t>86,31; 91,85</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>91,97; 95,68</t>
+          <t>92,08; 95,65</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,8; 91,09</t>
+          <t>84,95; 90,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,83; 90,94</t>
+          <t>84,9; 90,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82,01; 88,35</t>
+          <t>81,99; 88,32</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>65,76; 75,38</t>
+          <t>66,04; 75,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>87,24; 92,47</t>
+          <t>86,86; 92,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,75; 93,09</t>
+          <t>87,65; 93,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,4; 92,56</t>
+          <t>87,16; 92,45</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,83; 82,18</t>
+          <t>75,69; 82,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,75; 90,83</t>
+          <t>86,7; 90,77</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,19; 91,33</t>
+          <t>87,38; 91,44</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,45; 89,63</t>
+          <t>85,58; 89,71</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,95; 77,79</t>
+          <t>72,1; 77,56</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,23; 97,04</t>
+          <t>91,35; 97,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,93; 97,77</t>
+          <t>93,22; 97,63</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,68; 98,15</t>
+          <t>93,9; 98,22</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>95,05; 98,42</t>
+          <t>94,82; 98,37</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,33; 98,32</t>
+          <t>94,44; 98,39</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,17; 97,07</t>
+          <t>92,17; 97,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,31; 99,38</t>
+          <t>96,47; 99,4</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,35; 95,52</t>
+          <t>90,39; 95,3</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,7; 97,18</t>
+          <t>93,87; 97,26</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,82</t>
+          <t>93,44; 96,85</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,9; 98,39</t>
+          <t>95,83; 98,45</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,05; 96,22</t>
+          <t>93,08; 96,35</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,73; 96,15</t>
+          <t>90,63; 96,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,43; 92,28</t>
+          <t>87,62; 92,78</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,44; 91,99</t>
+          <t>85,42; 92,05</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,53; 95,6</t>
+          <t>87,81; 95,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,59; 98,16</t>
+          <t>94,48; 98,18</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,9; 95,12</t>
+          <t>91,12; 95,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>89,79; 95,54</t>
+          <t>90,17; 95,71</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,27; 94,67</t>
+          <t>79,31; 94,67</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,26; 96,7</t>
+          <t>93,45; 96,74</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,1; 93,26</t>
+          <t>90,17; 93,22</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>89,05; 93,05</t>
+          <t>88,72; 93,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,97; 94,02</t>
+          <t>84,66; 94,08</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,38; 94,94</t>
+          <t>86,47; 94,81</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,47; 98,05</t>
+          <t>92,4; 98,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,59; 99,59</t>
+          <t>95,23; 99,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,53; 99,1</t>
+          <t>95,16; 99,14</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>92,41; 98,46</t>
+          <t>91,9; 98,13</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,46; 96,27</t>
+          <t>88,98; 96,24</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,51; 99,62</t>
+          <t>96,72; 99,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,74; 98,74</t>
+          <t>94,38; 98,86</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,72; 95,84</t>
+          <t>90,94; 96,13</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,82; 96,38</t>
+          <t>91,69; 96,3</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>96,88; 99,4</t>
+          <t>96,93; 99,42</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,92; 98,58</t>
+          <t>95,61; 98,65</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,19; 96,8</t>
+          <t>91,06; 96,46</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,99; 97,08</t>
+          <t>90,71; 97,08</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,49; 90,18</t>
+          <t>81,18; 90,04</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,63; 91,01</t>
+          <t>83,86; 91,37</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,23; 96,75</t>
+          <t>91,37; 96,8</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>92,63; 97,61</t>
+          <t>93,03; 97,62</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>89,1; 95,23</t>
+          <t>88,85; 95,07</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,88; 94,8</t>
+          <t>89,83; 94,73</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,07</t>
+          <t>92,14; 96,16</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,83; 96,78</t>
+          <t>92,82; 96,78</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>86,59; 91,83</t>
+          <t>86,06; 91,79</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,64; 92,02</t>
+          <t>87,88; 92,31</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,31; 96,17</t>
+          <t>92,4; 96,28</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,63; 95,45</t>
+          <t>91,51; 95,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,53; 93,97</t>
+          <t>89,43; 94,02</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,98; 92,44</t>
+          <t>87,11; 92,5</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,4; 94,16</t>
+          <t>89,63; 94,0</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,7; 95,68</t>
+          <t>91,56; 95,48</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,41; 93,87</t>
+          <t>89,37; 93,72</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,39; 94,61</t>
+          <t>88,39; 94,14</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,79; 94,48</t>
+          <t>91,66; 94,7</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92,11; 95,0</t>
+          <t>92,39; 95,2</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>90,24; 93,32</t>
+          <t>90,26; 93,28</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,56; 93,1</t>
+          <t>88,73; 92,87</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,19; 94,13</t>
+          <t>90,41; 94,17</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,12; 98,11</t>
+          <t>95,28; 98,15</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,39; 98,14</t>
+          <t>95,33; 98,0</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>80,79; 87,45</t>
+          <t>81,06; 87,87</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,14; 97,01</t>
+          <t>94,29; 97,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,31; 97,89</t>
+          <t>95,4; 97,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>96,1; 98,29</t>
+          <t>96,05; 98,24</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,7; 88,88</t>
+          <t>84,43; 88,83</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,8; 95,2</t>
+          <t>92,95; 95,32</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,72; 97,69</t>
+          <t>95,81; 97,69</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>96,25; 97,96</t>
+          <t>96,2; 97,91</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>83,46; 87,44</t>
+          <t>83,6; 87,24</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,91; 93,75</t>
+          <t>91,94; 93,78</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>92,34; 94,22</t>
+          <t>92,41; 94,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,77; 92,65</t>
+          <t>90,76; 92,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>85,61; 88,34</t>
+          <t>85,76; 88,38</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>93,44; 95,04</t>
+          <t>93,53; 95,16</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>93,36; 94,89</t>
+          <t>93,29; 94,94</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>93,25; 94,85</t>
+          <t>93,23; 94,79</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,79; 90,33</t>
+          <t>87,67; 90,32</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>92,97; 94,2</t>
+          <t>93,01; 94,18</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,14; 94,35</t>
+          <t>93,17; 94,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>92,27; 93,59</t>
+          <t>92,29; 93,51</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>87,23; 89,17</t>
+          <t>87,25; 89,03</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>81,83%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,85%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>88,72%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>93,47%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>85,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>94,06%</t>
+          <t>94,14%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>77,04; 86,38</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,54; 96,94</t>
+          <t>91,84; 97,08</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>84,45; 92,23</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,69; 95,54</t>
+          <t>90,41; 95,56</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>82,11; 88,48</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,08; 95,65</t>
+          <t>92,08; 95,74</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>70,72%</t>
+          <t>71,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>78,99%</t>
+          <t>78,89%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>74,99%</t>
+          <t>75,01%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,04; 75,42</t>
+          <t>66,17; 75,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,69; 82,35</t>
+          <t>75,54; 82,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>72,1; 77,56</t>
+          <t>71,96; 77,72</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>97,03%</t>
+          <t>97,13%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>95,01%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,82; 98,37</t>
+          <t>94,99; 98,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,39; 95,3</t>
+          <t>90,34; 95,29</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,08; 96,35</t>
+          <t>93,17; 96,39</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>90,2%</t>
+          <t>96,79%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>93,3%</t>
+          <t>96,69%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>90,57%</t>
+          <t>80,43%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>96,74%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>85,2%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>87,62; 92,78</t>
+          <t>94,17; 98,48</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,81; 95,64</t>
+          <t>87,44; 95,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>91,12; 95,13</t>
+          <t>94,72; 98,28</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>79,31; 94,67</t>
+          <t>51,25; 95,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>90,17; 93,22</t>
+          <t>95,22; 97,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>84,66; 94,08</t>
+          <t>62,1; 94,05</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>97,78%</t>
+          <t>97,77%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,16; 99,14</t>
+          <t>95,12; 99,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,86</t>
+          <t>94,17; 98,85</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,61; 98,65</t>
+          <t>95,67; 98,65</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>87,72%</t>
+          <t>87,78%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>90,16%</t>
+          <t>90,15%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,86; 91,37</t>
+          <t>83,84; 91,4</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,83; 94,73</t>
+          <t>89,85; 94,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,88; 92,31</t>
+          <t>87,81; 92,31</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>90,09%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>90,53%</t>
+          <t>91,19%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>87,11; 92,5</t>
+          <t>86,96; 92,43</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,39; 94,14</t>
+          <t>88,64; 96,26</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>88,73; 92,87</t>
+          <t>89,02; 94,39</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>84,01%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>86,77%</t>
+          <t>86,65%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>85,4%</t>
+          <t>87,18%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>81,06; 87,87</t>
+          <t>82,46; 94,95</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,43; 88,83</t>
+          <t>84,31; 88,67</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>83,6; 87,24</t>
+          <t>84,31; 92,59</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>87,07%</t>
+          <t>88,08%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>89,11%</t>
+          <t>88,17%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>88,15%</t>
+          <t>88,13%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>85,76; 88,38</t>
+          <t>86,5; 90,64</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>87,67; 90,32</t>
+          <t>81,96; 90,48</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>87,25; 89,03</t>
+          <t>85,34; 89,8</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P36B02_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>92,44; 97,87</t>
+          <t>92,5; 97,94</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>77,04; 86,38</t>
+          <t>76,58; 85,97</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>81,81; 90,94</t>
+          <t>82,59; 90,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>91,84; 97,08</t>
+          <t>91,65; 96,96</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>92,6; 97,73</t>
+          <t>92,54; 97,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>84,45; 92,23</t>
+          <t>84,41; 92,28</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>87,99; 94,33</t>
+          <t>87,43; 94,12</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>90,41; 95,56</t>
+          <t>89,9; 95,58</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>93,63; 97,28</t>
+          <t>93,68; 97,22</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>82,11; 88,48</t>
+          <t>81,81; 88,04</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>86,31; 91,85</t>
+          <t>86,28; 91,62</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>92,08; 95,74</t>
+          <t>91,87; 95,78</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>84,95; 90,76</t>
+          <t>84,64; 90,61</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>84,9; 90,94</t>
+          <t>84,78; 90,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>81,99; 88,32</t>
+          <t>81,76; 88,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>66,17; 75,84</t>
+          <t>65,89; 75,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>86,86; 92,37</t>
+          <t>87,13; 92,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>87,65; 93,03</t>
+          <t>87,68; 92,99</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>87,16; 92,45</t>
+          <t>87,43; 92,53</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,54; 82,29</t>
+          <t>75,56; 82,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>86,7; 90,77</t>
+          <t>86,79; 90,83</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>87,38; 91,44</t>
+          <t>87,3; 91,39</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>85,58; 89,71</t>
+          <t>85,63; 89,81</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>71,96; 77,72</t>
+          <t>71,84; 77,93</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>91,35; 97,09</t>
+          <t>90,95; 97,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>93,22; 97,63</t>
+          <t>92,94; 97,6</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,9; 98,22</t>
+          <t>93,78; 98,26</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>94,99; 98,42</t>
+          <t>95,01; 98,41</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,44; 98,39</t>
+          <t>94,61; 98,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>92,17; 97,11</t>
+          <t>92,5; 97,11</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>96,47; 99,4</t>
+          <t>96,09; 99,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>90,34; 95,29</t>
+          <t>90,01; 95,23</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>93,87; 97,26</t>
+          <t>93,81; 97,24</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>93,44; 96,85</t>
+          <t>93,53; 96,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,45</t>
+          <t>95,8; 98,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>93,17; 96,39</t>
+          <t>93,31; 96,39</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>90,63; 96,28</t>
+          <t>91,16; 96,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>94,17; 98,48</t>
+          <t>94,13; 98,45</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>85,42; 92,05</t>
+          <t>85,44; 92,19</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>87,44; 95,64</t>
+          <t>88,1; 95,83</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,48; 98,18</t>
+          <t>94,46; 98,31</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>94,72; 98,28</t>
+          <t>94,65; 98,02</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>90,17; 95,71</t>
+          <t>90,17; 95,42</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>51,25; 95,03</t>
+          <t>50,18; 95,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>93,45; 96,74</t>
+          <t>93,55; 96,81</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>95,22; 97,83</t>
+          <t>95,23; 97,9</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>88,72; 93,19</t>
+          <t>88,84; 93,06</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>62,1; 94,05</t>
+          <t>61,21; 94,14</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>86,47; 94,81</t>
+          <t>86,78; 94,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>92,4; 98,09</t>
+          <t>92,3; 98,07</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>95,23; 99,54</t>
+          <t>95,54; 99,54</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>95,12; 99,13</t>
+          <t>95,51; 99,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>91,9; 98,13</t>
+          <t>91,95; 98,23</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>88,98; 96,24</t>
+          <t>89,09; 96,52</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>96,72; 99,62</t>
+          <t>96,35; 99,62</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>94,17; 98,85</t>
+          <t>94,63; 98,87</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>90,94; 96,13</t>
+          <t>91,24; 96,03</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>91,69; 96,3</t>
+          <t>91,85; 96,43</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>96,93; 99,42</t>
+          <t>96,86; 99,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>95,67; 98,65</t>
+          <t>95,72; 98,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,06; 96,46</t>
+          <t>91,09; 96,78</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>90,71; 97,08</t>
+          <t>90,7; 97,09</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>81,18; 90,04</t>
+          <t>81,17; 90,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>83,84; 91,4</t>
+          <t>83,58; 91,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>91,37; 96,8</t>
+          <t>91,05; 96,78</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>93,03; 97,62</t>
+          <t>92,96; 97,68</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>88,85; 95,07</t>
+          <t>89,37; 95,46</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>89,85; 94,7</t>
+          <t>89,71; 94,7</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>92,14; 96,16</t>
+          <t>92,28; 96,1</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>92,82; 96,78</t>
+          <t>93,26; 96,88</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>86,06; 91,79</t>
+          <t>86,54; 91,8</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>87,81; 92,31</t>
+          <t>87,7; 92,27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>92,4; 96,28</t>
+          <t>92,19; 96,12</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>91,51; 95,46</t>
+          <t>91,38; 95,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>89,43; 94,02</t>
+          <t>89,72; 94,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>86,96; 92,43</t>
+          <t>86,95; 92,58</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>89,63; 94,0</t>
+          <t>89,6; 94,02</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>91,56; 95,48</t>
+          <t>91,72; 95,52</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>89,37; 93,72</t>
+          <t>89,72; 93,83</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>88,64; 96,26</t>
+          <t>89,0; 96,03</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>91,66; 94,7</t>
+          <t>91,66; 94,59</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>92,39; 95,2</t>
+          <t>92,25; 95,05</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>90,26; 93,28</t>
+          <t>90,2; 93,23</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>89,02; 94,39</t>
+          <t>89,04; 94,55</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>90,41; 94,17</t>
+          <t>90,36; 94,22</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,28; 98,15</t>
+          <t>95,15; 97,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,33; 98,0</t>
+          <t>95,43; 98,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>82,46; 94,95</t>
+          <t>82,16; 94,57</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>94,29; 97,04</t>
+          <t>94,25; 97,02</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>95,4; 97,88</t>
+          <t>95,29; 97,93</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>96,05; 98,24</t>
+          <t>95,92; 98,22</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>84,31; 88,67</t>
+          <t>84,3; 88,56</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>92,95; 95,32</t>
+          <t>92,84; 95,26</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>95,81; 97,69</t>
+          <t>95,69; 97,6</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>96,2; 97,91</t>
+          <t>96,22; 97,93</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>84,31; 92,59</t>
+          <t>84,3; 91,87</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,94; 93,78</t>
+          <t>91,95; 93,73</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>92,41; 94,13</t>
+          <t>92,41; 94,14</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>90,76; 92,69</t>
+          <t>90,79; 92,69</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>86,5; 90,64</t>
+          <t>86,46; 90,56</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>93,53; 95,16</t>
+          <t>93,46; 95,07</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>93,29; 94,94</t>
+          <t>93,35; 95,0</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>93,23; 94,79</t>
+          <t>93,29; 94,84</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>81,96; 90,48</t>
+          <t>81,31; 90,42</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>93,01; 94,18</t>
+          <t>92,99; 94,19</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>93,17; 94,35</t>
+          <t>93,13; 94,3</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>92,29; 93,51</t>
+          <t>92,24; 93,5</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>85,34; 89,8</t>
+          <t>84,52; 89,66</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que consume leche y derivados (yogur, postres lácteos, queso ...) al menos 3 veces por semana</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>817</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>261273</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>241193</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>255066</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>295390</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>249537</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>254836</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>264355</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>270490</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>510811</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>496029</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>519421</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>565879</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>252525; 267380</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>225722; 253372</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>241748; 266322</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>285430; 301983</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>241371; 254883</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>242471; 265079</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>252417; 271728</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>260387; 276845</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>500129; 519009</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>476118; 512368</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>501610; 532703</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>552229; 575731</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>448</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>570</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>857</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>853</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>839</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>834</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>433837</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>445868</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>427361</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>368862</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>452422</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>474804</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>470897</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>406280</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>886259</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>920672</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>898258</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>775142</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>417353; 446797</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>428579; 459776</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>410023; 441796</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>341556; 391845</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>439082; 465140</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>459224; 487038</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>457345; 484024</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>389110; 423209</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>865363; 905576</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>898612; 940676</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>877375; 920156</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>742324; 805341</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>502</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>620</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>607</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>649</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>849</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>302124</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>310467</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>306484</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>306965</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>324814</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>324171</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>330545</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>325003</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>626938</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>634638</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>637029</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>631968</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>289992; 309395</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>301165; 316267</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>297833; 312066</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>300268; 311032</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>317318; 330175</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>315436; 331178</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>323155; 334183</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>314241; 332458</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>613772; 636211</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>622058; 644530</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>626441; 643480</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>620699; 641155</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>691</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>823</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>336597</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>361981</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>329230</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>288964</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>359425</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>375211</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>360457</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>382614</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>696022</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>737192</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>689687</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>671578</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>326962; 344511</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>352012; 368199</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>316100; 341072</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>275362; 299523</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>350876; 365190</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>367270; 380377</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>348435; 368721</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>238695; 452054</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>683003; 706803</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>725656; 746053</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>671936; 703851</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>482521; 742056</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>482</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>754</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>185901</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>203666</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>207643</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>174765</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>199496</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>204540</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>215893</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>202901</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>385397</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>408207</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>423536</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>377666</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>176425; 192819</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>196245; 208505</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>201802; 210241</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>170719; 177027</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>190950; 203995</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>195624; 211957</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>210612; 217761</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>197092; 205920</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>374991; 394655</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>396966; 416783</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>416321; 427037</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>370458; 381693</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>505</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>504</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>466</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>749</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>255466</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>259211</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>226846</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>236692</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>263061</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>267399</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>252535</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>238127</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>518528</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>526610</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>479381</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>474818</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>246680; 262084</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>248514; 266000</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>213576; 237104</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>225358; 246039</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>253247; 269182</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>259401; 272576</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>244091; 260714</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>230615; 243431</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>506556; 527558</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>515733; 535753</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>464086; 492292</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>461918; 485968</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>565</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>577</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>530</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>543</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>572</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>591</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>852</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1137</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1121</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1395</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>580966</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>620080</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>602042</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>562430</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>586489</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>646978</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>632812</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>781331</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1167456</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1267057</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1234854</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1343761</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>566972; 591166</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>604839; 631883</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>587290; 616210</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>542831; 577986</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>570823; 598979</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>632728; 658925</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>618334; 646654</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>755811; 815554</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1147638; 1184326</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1246909; 1284799</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1212098; 1252787</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1311980; 1393260</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>678</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>696</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>727</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>712</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>733</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>916</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>1390</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>1429</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>1460</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1555</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>686376</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>754468</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>753393</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>813405</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>750690</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>797081</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>803550</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>621940</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>1437066</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>1551550</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>1556943</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1435347</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>671281; 699983</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>741287; 763346</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>741221; 761664</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>763025; 878310</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>738461; 760182</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>785028; 806840</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>792478; 811453</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>605081; 635621</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>1417174; 1454118</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>1533785; 1564460</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>1542271; 1569718</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>1387953; 1512537</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2986</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>2998</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2965</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>2976</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>3108</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>3102</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>3132</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>4800</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>6094</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>6100</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>6097</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>7776</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3042541</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3196935</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>3108065</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>3047473</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>3185936</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>3345019</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>3331043</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>3228685</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>6228477</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>6541954</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>6439108</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>6276158</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>3012122; 3070252</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>3165835; 3225120</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>3075473; 3139970</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>2991412; 3133167</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>3157099; 3211411</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>3316066; 3374605</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>3303809; 3358725</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2977336; 3311088</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>6187214; 6267283</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>6498635; 6580603</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>6391082; 6478731</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>6019189; 6385285</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>